--- a/tugas akhir/Admin/AdminReportTesting.xlsx
+++ b/tugas akhir/Admin/AdminReportTesting.xlsx
@@ -472,7 +472,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AdminTesting</t>
+          <t>Test_Admin</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -486,42 +486,42 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>18.28640089998953</v>
+        <v>18.37149080005474</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2023-07-20T10:58:47</t>
+          <t>2023-07-20T11:14:35</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>selenium.common.exceptions.ElementClickInterceptedException: Message: element click intercepted: Element &lt;button type="submit" class="oxd-button oxd-button--medium oxd-button--secondary orangehrm-left-space" data-v-10d463b7=""&gt;...&lt;/button&gt; is not clickable at point (1149, 337). Other element would receive the click: &lt;div role="option" class="oxd-select-option" data-v-d130bb63="" data-v-13cf171c=""&gt;...&lt;/div&gt;
+          <t>selenium.common.exceptions.ElementClickInterceptedException: Message: element click intercepted: Element &lt;button type="submit" class="oxd-button oxd-button--medium oxd-button--secondary orangehrm-left-space" data-v-10d463b7=""&gt;...&lt;/button&gt; is not clickable at point (1149, 338). Other element would receive the click: &lt;div role="option" class="oxd-select-option" data-v-d130bb63="" data-v-13cf171c=""&gt;...&lt;/div&gt;
   (Session info: chrome=114.0.5735.201)
 Stacktrace:
 Backtrace:
-	GetHandleVerifier [0x0089A813+48355]
-	(No symbol) [0x0082C4B1]
-	(No symbol) [0x00735358]
-	(No symbol) [0x00765062]
-	(No symbol) [0x00763B98]
-	(No symbol) [0x0076239B]
-	(No symbol) [0x0076179E]
-	(No symbol) [0x00759F5C]
-	(No symbol) [0x0077A73C]
-	(No symbol) [0x00759A36]
-	(No symbol) [0x0077AA94]
-	(No symbol) [0x0078C922]
-	(No symbol) [0x0077A536]
-	(No symbol) [0x007582DC]
-	(No symbol) [0x007593DD]
-	GetHandleVerifier [0x00AFAABD+2539405]
-	GetHandleVerifier [0x00B3A78F+2800735]
-	GetHandleVerifier [0x00B3456C+2775612]
-	GetHandleVerifier [0x009251E0+616112]
-	(No symbol) [0x00835F8C]
-	(No symbol) [0x00832328]
-	(No symbol) [0x0083240B]
-	(No symbol) [0x00824FF7]
+	GetHandleVerifier [0x0036A813+48355]
+	(No symbol) [0x002FC4B1]
+	(No symbol) [0x00205358]
+	(No symbol) [0x00235062]
+	(No symbol) [0x00233B98]
+	(No symbol) [0x0023239B]
+	(No symbol) [0x0023179E]
+	(No symbol) [0x00229F5C]
+	(No symbol) [0x0024A73C]
+	(No symbol) [0x00229A36]
+	(No symbol) [0x0024AA94]
+	(No symbol) [0x0025C922]
+	(No symbol) [0x0024A536]
+	(No symbol) [0x002282DC]
+	(No symbol) [0x002293DD]
+	GetHandleVerifier [0x005CAABD+2539405]
+	GetHandleVerifier [0x0060A78F+2800735]
+	GetHandleVerifier [0x0060456C+2775612]
+	GetHandleVerifier [0x003F51E0+616112]
+	(No symbol) [0x00305F8C]
+	(No symbol) [0x00302328]
+	(No symbol) [0x0030240B]
+	(No symbol) [0x002F4FF7]
 	BaseThreadInitThunk [0x75927D59+25]
 	RtlInitializeExceptionChain [0x7726B74B+107]
 	RtlClearBits [0x7726B6CF+191]</t>
@@ -529,7 +529,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>AdminTesting.py</t>
+          <t>Test_Admin.py</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
